--- a/medicine/Pharmacie/1810_en_santé_et_médecine/1810_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1810_en_santé_et_médecine/1810_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1810_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1810_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1810 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1810_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1810_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18 mai : promulgation de la première loi sanitaire vaudoise qui institue l’Hospice des aliénés[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 mai : promulgation de la première loi sanitaire vaudoise qui institue l’Hospice des aliénés.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1810_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1810_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nicolas Appert publie sa technique de conservation des aliments par appertisation[2].
-Gaspard Laurent Bayle, Recherches sur la phtisie pulmonaire, Paris, 1810 (lire en ligne). L'auteur distingue six types de lésions pulmonaires correspondant à la tuberculose[3].
-René-Joseph Bertin, Traité de la maladie vénérienne chez les enfants..., Paris, 1810 (lire en ligne). Premier ouvrage sur la syphilis congénitale[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nicolas Appert publie sa technique de conservation des aliments par appertisation.
+Gaspard Laurent Bayle, Recherches sur la phtisie pulmonaire, Paris, 1810 (lire en ligne). L'auteur distingue six types de lésions pulmonaires correspondant à la tuberculose.
+René-Joseph Bertin, Traité de la maladie vénérienne chez les enfants..., Paris, 1810 (lire en ligne). Premier ouvrage sur la syphilis congénitale.
 (de) Samuel Hahnemann, Organon der rationnellen Heilkunde, Leipzig, 1810. Première édition de l'Organon, traité fondateur de l'homéopathie.</t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1810_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1810_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4 mars : William Griffith (mort en 1845), médecin, naturaliste et botaniste britannique.
 11 août : Louis Tanquerel des Planches (mort en 1862), médecin et agronome français.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1810_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1810_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">25 juillet : Esprit Calvet (né en 1728), médecin, physiocrate, archéologue et naturaliste français.
 </t>
